--- a/Planillas/HierroRedondo.xlsx
+++ b/Planillas/HierroRedondo.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34EBA258-7879-4430-8580-F8089E79E938}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79E901A7-6D63-4601-9C8A-2091B71E1BB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3810" yWindow="3540" windowWidth="18000" windowHeight="9360" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="diag hierro red" sheetId="7" r:id="rId1"/>
@@ -16,6 +16,7 @@
     <sheet name="Larguero" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'Col cn mom red'!$A$1:$H$42</definedName>
     <definedName name="b" localSheetId="2">'Col cn mom red'!$B$3</definedName>
     <definedName name="b" localSheetId="3">'Col Exist Inf'!$B$3</definedName>
     <definedName name="b" localSheetId="4">'Col Exist Sup'!$B$3</definedName>
@@ -771,16 +772,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>37863</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>75963</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>104548</xdr:rowOff>
+      <xdr:rowOff>28348</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -803,7 +804,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4419600" y="1714500"/>
+          <a:off x="5067300" y="1638300"/>
           <a:ext cx="1895238" cy="1819048"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3236,8 +3237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D620A744-0E5E-4580-B89D-7A6A8AD8B535}">
   <dimension ref="A1:L93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="B78" sqref="B78"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4028,7 +4029,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
